--- a/信分用例分析表格.xlsx
+++ b/信分用例分析表格.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyacinth/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyacinth/Desktop/information_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AB6983-399C-A345-A34A-8D99EA5F2DBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF32F2AB-4EE7-CB4B-92E6-6BBF09183C3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12020" yWindow="460" windowWidth="27840" windowHeight="16000" xr2:uid="{82253264-732A-084E-9BE1-4030D33541DF}"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="27840" windowHeight="16000" xr2:uid="{82253264-732A-084E-9BE1-4030D33541DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>信分用例分析表格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,18 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建菜品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑菜品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除菜品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,14 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询商品信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组餐操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发布菜品供应清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加入购物车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,14 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支付订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看订单信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>取消订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看订餐统计信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,22 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认配餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（疑问 用户取消订单的时候是否会收到短信）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定取餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请取餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,11 +123,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浏览菜品信息与查询菜品信息是否是一个用例，因为感觉浏览实质就是查询所有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要补充用例关系</t>
+    <t>extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建菜品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询菜品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看首页菜品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消无法供应订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消用户订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 to 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑和删除菜品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、4、5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +213,22 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -239,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,6 +277,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,35 +604,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811B762D-2E88-E54F-A969-6ED7370B5D82}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18">
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -608,7 +640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -616,7 +648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -624,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -632,7 +664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18">
+    <row r="7" spans="1:6" ht="18">
       <c r="A7">
         <v>5</v>
       </c>
@@ -640,20 +672,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18">
+    <row r="8" spans="1:6" ht="18">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18">
       <c r="B10" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
@@ -661,11 +693,8 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -673,43 +702,52 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="4">
         <v>2</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="C14" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="4">
         <v>3</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="4">
         <v>4</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>13</v>
+      <c r="C16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -719,8 +757,8 @@
       <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>14</v>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -731,7 +769,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -742,10 +786,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -756,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -767,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -775,10 +816,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -788,8 +829,8 @@
       <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
+      <c r="C23" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -800,7 +841,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -811,18 +858,18 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="4">
         <v>14</v>
       </c>
-      <c r="B26" s="2">
-        <v>1</v>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -833,10 +880,19 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
         <v>24</v>
       </c>
-      <c r="D27" t="s">
-        <v>25</v>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -847,18 +903,18 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4">
         <v>17</v>
       </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>27</v>
+      <c r="B29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -869,19 +925,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>6</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -889,10 +933,16 @@
         <v>19</v>
       </c>
       <c r="B31" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -903,59 +953,57 @@
         <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="4">
         <v>21</v>
       </c>
-      <c r="B33" s="2">
-        <v>3</v>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="4">
         <v>22</v>
       </c>
       <c r="B34" s="2">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="4">
         <v>23</v>
       </c>
       <c r="B35" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="4">
         <v>24</v>
       </c>
       <c r="B36" s="2">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/信分用例分析表格.xlsx
+++ b/信分用例分析表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyacinth/Desktop/information_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF32F2AB-4EE7-CB4B-92E6-6BBF09183C3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169C0352-2935-4040-9C50-475DC687A6A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="27840" windowHeight="16000" xr2:uid="{82253264-732A-084E-9BE1-4030D33541DF}"/>
+    <workbookView xWindow="6740" yWindow="720" windowWidth="27840" windowHeight="16000" xr2:uid="{82253264-732A-084E-9BE1-4030D33541DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811B762D-2E88-E54F-A969-6ED7370B5D82}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -972,7 +972,7 @@
         <v>22</v>
       </c>
       <c r="B34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>34</v>
